--- a/Documentation/Product Backlog (Scrum).xlsx
+++ b/Documentation/Product Backlog (Scrum).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>ToDo List</t>
   </si>
@@ -25,12 +25,18 @@
     <t>Priority</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>As a user I want to see the Barber Shop Hours</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>As a user I want to make an appointment</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t>&lt;1</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>As a shop owner I want to manage my shop information</t>
@@ -342,180 +351,231 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
         <v>7.0</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
         <v>5.0</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
         <v>3.0</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
         <v>5.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
         <v>3.0</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
         <v>6.0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
         <v>2.0</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
         <v>2.0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
         <v>3.0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
         <v>2.0</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7">
         <v>3.0</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
         <v>1.0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
         <v>2.0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" s="11">
         <v>1.0</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>7</v>
       </c>
     </row>
